--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,163 +22,253 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>050009</t>
+  </si>
+  <si>
+    <t>009341</t>
+  </si>
+  <si>
     <t>004224</t>
   </si>
   <si>
+    <t>110029</t>
+  </si>
+  <si>
+    <t>110013</t>
+  </si>
+  <si>
+    <t>005358</t>
+  </si>
+  <si>
+    <t>050010</t>
+  </si>
+  <si>
+    <t>007518</t>
+  </si>
+  <si>
+    <t>006533</t>
+  </si>
+  <si>
+    <t>005359</t>
+  </si>
+  <si>
+    <t>007519</t>
+  </si>
+  <si>
+    <t>162202</t>
+  </si>
+  <si>
     <t>011148</t>
   </si>
   <si>
-    <t>005358</t>
-  </si>
-  <si>
-    <t>005359</t>
-  </si>
-  <si>
-    <t>050010</t>
-  </si>
-  <si>
-    <t>110013</t>
-  </si>
-  <si>
-    <t>162202</t>
-  </si>
-  <si>
-    <t>009341</t>
-  </si>
-  <si>
-    <t>006533</t>
-  </si>
-  <si>
-    <t>007518</t>
-  </si>
-  <si>
-    <t>007519</t>
-  </si>
-  <si>
-    <t>050009</t>
-  </si>
-  <si>
-    <t>110029</t>
-  </si>
-  <si>
     <t>002595</t>
   </si>
   <si>
+    <t>博时新兴成长混合</t>
+  </si>
+  <si>
+    <t>易方达均衡成长股票</t>
+  </si>
+  <si>
     <t>南方军工改革灵活配置混合A</t>
   </si>
   <si>
+    <t>易方达科讯混合</t>
+  </si>
+  <si>
+    <t>易方达科翔混合</t>
+  </si>
+  <si>
+    <t>东方阿尔法精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>博时特许价值混合A</t>
+  </si>
+  <si>
+    <t>东方阿尔法优选混合A</t>
+  </si>
+  <si>
+    <t>易方达科融混合</t>
+  </si>
+  <si>
+    <t>东方阿尔法精选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>东方阿尔法优选混合C</t>
+  </si>
+  <si>
+    <t>泰达宏利周期混合</t>
+  </si>
+  <si>
     <t>南方军工改革灵活配置混合C</t>
   </si>
   <si>
-    <t>东方阿尔法精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>东方阿尔法精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>博时特许价值混合A</t>
-  </si>
-  <si>
-    <t>易方达科翔混合</t>
-  </si>
-  <si>
-    <t>泰达宏利周期混合</t>
-  </si>
-  <si>
-    <t>易方达均衡成长股票</t>
-  </si>
-  <si>
-    <t>易方达科融混合</t>
-  </si>
-  <si>
-    <t>东方阿尔法优选混合A</t>
-  </si>
-  <si>
-    <t>东方阿尔法优选混合C</t>
-  </si>
-  <si>
-    <t>博时新兴成长混合</t>
-  </si>
-  <si>
-    <t>易方达科讯混合</t>
-  </si>
-  <si>
     <t>博时工业4.0主题股票</t>
   </si>
   <si>
+    <t>30.56</t>
+  </si>
+  <si>
+    <t>103.57</t>
+  </si>
+  <si>
+    <t>27.46</t>
+  </si>
+  <si>
+    <t>41.16</t>
+  </si>
+  <si>
+    <t>51.72</t>
+  </si>
+  <si>
+    <t>9.02</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>89.92</t>
+  </si>
+  <si>
+    <t>87.83</t>
+  </si>
+  <si>
     <t>92.94</t>
   </si>
   <si>
+    <t>82.88</t>
+  </si>
+  <si>
+    <t>86.14</t>
+  </si>
+  <si>
     <t>92.02</t>
   </si>
   <si>
     <t>88.53</t>
   </si>
   <si>
-    <t>86.14</t>
+    <t>89.60</t>
+  </si>
+  <si>
+    <t>87.26</t>
   </si>
   <si>
     <t>88.84</t>
   </si>
   <si>
-    <t>87.83</t>
-  </si>
-  <si>
-    <t>87.26</t>
-  </si>
-  <si>
-    <t>89.60</t>
-  </si>
-  <si>
-    <t>89.92</t>
-  </si>
-  <si>
-    <t>82.88</t>
-  </si>
-  <si>
     <t>87.68</t>
   </si>
   <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
     <t>5.66</t>
   </si>
   <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
     <t>10.75</t>
   </si>
   <si>
     <t>9.45</t>
   </si>
   <si>
-    <t>2.71</t>
+    <t>8.40</t>
+  </si>
+  <si>
+    <t>4.11</t>
   </si>
   <si>
     <t>4.43</t>
   </si>
   <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>8.40</t>
-  </si>
-  <si>
-    <t>10.13</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
     <t>3.69</t>
+  </si>
+  <si>
+    <t>3.0957</t>
+  </si>
+  <si>
+    <t>2.6514</t>
+  </si>
+  <si>
+    <t>1.5542</t>
+  </si>
+  <si>
+    <t>1.4612</t>
+  </si>
+  <si>
+    <t>1.4016</t>
+  </si>
+  <si>
+    <t>0.9696</t>
+  </si>
+  <si>
+    <t>0.5566</t>
+  </si>
+  <si>
+    <t>0.2411</t>
+  </si>
+  <si>
+    <t>0.1940</t>
+  </si>
+  <si>
+    <t>0.1720</t>
+  </si>
+  <si>
+    <t>0.1168</t>
+  </si>
+  <si>
+    <t>0.1090</t>
+  </si>
+  <si>
+    <t>0.0458</t>
+  </si>
+  <si>
+    <t>0.0365</t>
   </si>
 </sst>
 </file>
@@ -536,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,284 +648,374 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.66</v>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.15</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1596,13 +1661,781 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0895</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9833</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>12.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.58</v>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.66</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.15</v>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4172</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2711,7 +2712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2722,17 +2723,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2742,14 +2763,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.16</v>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2758,14 +2801,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.58</v>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2774,14 +2839,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.66</v>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2790,14 +2877,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.15</v>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2806,13 +2915,1155 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,585 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0957</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009341</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达均衡成长股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>103.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6514</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004224</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.5542</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110029</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达科讯混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4612</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>110013</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科翔混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>51.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4016</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9696</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>050010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时特许价值混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5566</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2411</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006533</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达科融混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1940</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1720</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1168</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>162202</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰达宏利周期混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.84</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1090</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011148</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时工业4.0主题股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.68</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1044,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1105,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.10</t>
+          <t>27.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7483</t>
+          <t>2.4896</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1133,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>050010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>博时特许价值混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6028</t>
+          <t>0.5340</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1171,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050010</t>
+          <t>011184</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时特许价值混合A</t>
+          <t>东方阿尔法招阳混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4108</t>
+          <t>0.4786</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1209,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1774</t>
+          <t>0.4685</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1247,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>011486</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>博时创新精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>88.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1236</t>
+          <t>0.3992</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1285,36 +829,986 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0825</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,7 +1843,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1389,22 +1883,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.72</t>
+          <t>32.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>86.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6112</t>
+          <t>2.6805</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1417,36 +1911,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>32.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5440</t>
+          <t>1.4234</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1465,26 +1959,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>83.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3905</t>
+          <t>0.4172</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1493,36 +1987,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>005359</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1110</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,7 +3019,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2413,22 +3059,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.53</t>
+          <t>30.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.97</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6805</t>
+          <t>2.6112</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2441,36 +3087,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.13</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4234</t>
+          <t>0.5440</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2489,26 +3135,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4172</t>
+          <t>0.3905</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2517,188 +3163,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3642</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001047</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大保德信国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001463</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信一带一路战略主题混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +3206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2733,7 +3227,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2773,26 +3267,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.54</t>
+          <t>35.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4896</t>
+          <t>2.7483</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2801,36 +3295,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050010</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时特许价值混合A</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5340</t>
+          <t>0.6028</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2839,36 +3333,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011184</t>
+          <t>050010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合A</t>
+          <t>博时特许价值混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4786</t>
+          <t>0.4108</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2877,36 +3371,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4685</t>
+          <t>0.1774</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2915,36 +3409,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011486</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时创新精选混合A</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.63</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3992</t>
+          <t>0.1236</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2953,986 +3447,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3957</t>
+          <t>0.0825</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001047</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大保德信国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2080</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012082</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2066</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>050022</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时回报混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1809</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>014036</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时成长回报混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1559</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000264</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时内需增长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>76.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1462</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001215</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1223</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>050012</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时策略混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1172</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001463</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>光大保德信一带一路战略主题混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1040</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0494</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011487</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时创新精选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014037</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时成长回报混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>012083</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011185</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002773</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>83.65</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004222</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金信民旺债券A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>21.44</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002774</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>83.65</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.88</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004402</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>金信民旺债券C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>21.44</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>011982</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时内需增长混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>76.05</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3946,128 +3490,584 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.26</v>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>103.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5542</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>5.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12.61</v>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>6.26</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>5.16</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>11.58</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>3.66</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.15</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.61</v>
       </c>
     </row>
@@ -583,6 +600,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8360</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时特许价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1816,7 +3333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2176,7 +3693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2992,7 +4509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3200,7 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3484,7 +5001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600416-湘电股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>11.41</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>6.26</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>5.16</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>11.58</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>3.66</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.15</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.61</v>
       </c>
     </row>
@@ -600,6 +617,1848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7749</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时特许价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时数字经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时数字经济混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +3958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3333,7 +5192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3693,7 +5552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4509,7 +6368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4717,7 +6576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5001,7 +6860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
